--- a/SeleniumAutomation/Login1.xlsx
+++ b/SeleniumAutomation/Login1.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serghei.Matura\eclipse-workspace\SeleniumAutomation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437557D6-2D0D-4AE4-8C7A-827E29A07796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6945"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>UserName</t>
   </si>
@@ -32,13 +39,25 @@
   </si>
   <si>
     <t>mno</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>mercury@bgjgjg</t>
+  </si>
+  <si>
+    <t>mercury@c.c</t>
+  </si>
+  <si>
+    <t>mno@</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -57,6 +76,14 @@
       <b/>
       <sz val="14"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,17 +127,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -414,28 +444,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -446,7 +476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -455,7 +485,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="18.75">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -464,7 +494,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="18.75">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -473,7 +503,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" ht="18.75">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -486,4 +516,54 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3A0BA7-ACDE-4FEA-9BBD-2FD3C3607615}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{5E7C0116-AE69-42C0-8C23-107CE47144AD}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{8059A623-D99B-4A9A-8C70-9AEF21223483}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{EB97B9BF-5BC7-4F59-9718-C4D98F793ABA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>